--- a/Hardware/tinyK22_Master/V1.1/BOM_PCBWay_tinyK22_Master_V1.1.xlsx
+++ b/Hardware/tinyK22_Master/V1.1/BOM_PCBWay_tinyK22_Master_V1.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28E0739-B720-4E4F-B620-A89C7488BCEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C217A51-04BD-4B61-B340-84D6BB4026A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1605" yWindow="-17640" windowWidth="25320" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25875" yWindow="-12450" windowWidth="25320" windowHeight="20175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
     <t>HU2032-LF</t>
   </si>
   <si>
-    <t>Distrelec: 169-50-029</t>
-  </si>
-  <si>
     <t>Mouser: 78-VS-10BQ015HM35BT</t>
+  </si>
+  <si>
+    <t>Distrelec: 169-50-029 plus CR2025 3V Cell</t>
   </si>
 </sst>
 </file>
@@ -628,12 +628,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -686,6 +680,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1080,7 +1080,7 @@
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1099,25 +1099,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="D2" s="24" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="D2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="28.5" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -1243,7 +1243,7 @@
       <c r="I9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="F11" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="41" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="13" t="s">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1">
@@ -1351,13 +1351,13 @@
       <c r="C13" s="17">
         <v>1</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -1389,7 +1389,7 @@
       <c r="E14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="27" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -1405,7 +1405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="34" customFormat="1" ht="15">
+    <row r="15" spans="1:10" s="32" customFormat="1" ht="15">
       <c r="A15" s="17">
         <v>9</v>
       </c>
@@ -1415,29 +1415,29 @@
       <c r="C15" s="17">
         <v>2</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="28">
         <v>1803293</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" ht="15">
+    <row r="16" spans="1:10" s="37" customFormat="1" ht="15">
       <c r="A16" s="18">
         <v>10</v>
       </c>
@@ -1447,27 +1447,27 @@
       <c r="C16" s="18">
         <v>1</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" ht="15">
+    <row r="17" spans="1:10" s="37" customFormat="1" ht="15">
       <c r="A17" s="18">
         <v>11</v>
       </c>
@@ -1477,27 +1477,27 @@
       <c r="C17" s="18">
         <v>1</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38" t="s">
+      <c r="I17" s="35"/>
+      <c r="J17" s="36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="39" customFormat="1" ht="15">
+    <row r="18" spans="1:10" s="37" customFormat="1" ht="15">
       <c r="A18" s="18">
         <v>12</v>
       </c>
@@ -1507,13 +1507,13 @@
       <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="39" t="s">
         <v>73</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -1523,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="40" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       <c r="C19" s="18">
         <v>1</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="42" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -1582,11 +1582,11 @@
       <c r="H20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="30" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" ht="15">
@@ -1608,13 +1608,13 @@
       <c r="F21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="30" t="s">
         <v>93</v>
       </c>
       <c r="J21" s="20" t="s">
@@ -1640,13 +1640,13 @@
       <c r="F22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="30" t="s">
         <v>93</v>
       </c>
       <c r="J22" s="20" t="s">
@@ -1669,16 +1669,16 @@
       <c r="E23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="30" t="s">
         <v>93</v>
       </c>
       <c r="J23" s="20" t="s">
